--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -975,7 +975,7 @@
         <v>578.62</v>
       </c>
       <c r="G8">
-        <v>86.95866666666669</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H8">
         <v>94.06999999999999</v>
@@ -1040,7 +1040,7 @@
         <v>540.62</v>
       </c>
       <c r="G9">
-        <v>86.95866666666669</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H9">
         <v>235.72</v>
@@ -1064,7 +1064,7 @@
         <v>-252.47</v>
       </c>
       <c r="O9">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P9">
         <v>59.26</v>
@@ -1105,7 +1105,7 @@
         <v>416.19</v>
       </c>
       <c r="G10">
-        <v>86.95866666666669</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H10">
         <v>223.29</v>
@@ -1170,7 +1170,7 @@
         <v>395.32</v>
       </c>
       <c r="G11">
-        <v>86.95866666666669</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H11">
         <v>211.63</v>
@@ -1235,7 +1235,7 @@
         <v>403.81</v>
       </c>
       <c r="G12">
-        <v>86.95866666666669</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="H12">
         <v>217.68</v>
@@ -1259,7 +1259,7 @@
         <v>-1034.18</v>
       </c>
       <c r="O12">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P12">
         <v>23.57</v>
@@ -1454,10 +1454,10 @@
         <v>-86.70999999999999</v>
       </c>
       <c r="O15">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P15">
-        <v>11.76533333333333</v>
+        <v>11.77</v>
       </c>
       <c r="Q15">
         <v>-86.70999999999999</v>
@@ -1519,10 +1519,10 @@
         <v>250.85</v>
       </c>
       <c r="O16">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P16">
-        <v>11.76533333333333</v>
+        <v>11.77</v>
       </c>
       <c r="Q16">
         <v>250.85</v>
@@ -1584,7 +1584,7 @@
         <v>55.67</v>
       </c>
       <c r="O17">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P17">
         <v>0.07000000000000001</v>
@@ -1649,7 +1649,7 @@
         <v>254.19</v>
       </c>
       <c r="O18">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P18">
         <v>0.15</v>
@@ -1714,10 +1714,10 @@
         <v>8.43</v>
       </c>
       <c r="O19">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P19">
-        <v>11.76533333333333</v>
+        <v>11.77</v>
       </c>
       <c r="Q19">
         <v>8.43</v>
@@ -1779,10 +1779,10 @@
         <v>52.25</v>
       </c>
       <c r="O20">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P20">
-        <v>11.76533333333333</v>
+        <v>11.77</v>
       </c>
       <c r="Q20">
         <v>52.25</v>
@@ -1844,10 +1844,10 @@
         <v>-818.63</v>
       </c>
       <c r="O21">
-        <v>6.029999999999998</v>
+        <v>6.03</v>
       </c>
       <c r="P21">
-        <v>11.76533333333333</v>
+        <v>11.77</v>
       </c>
       <c r="Q21">
         <v>-818.63</v>
